--- a/rawinfo.xlsx
+++ b/rawinfo.xlsx
@@ -22,7 +22,7 @@
     <t>Température four</t>
   </si>
   <si>
-    <t>Temps</t>
+    <t>Temps s</t>
   </si>
   <si>
     <t>HeatFlow</t>
